--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D421763-798D-4D4C-8512-FF20D7BDAF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E3BD8-C11B-44E5-9F6D-6FA21BFA82FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A4:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +974,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{117C104A-D9EB-40EC-8805-E491135436A6}"/>
-    <hyperlink ref="B3:B4" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/50bks_3atsb0243_1_a7b95fd2e27f4e178c8d8e82dba217c4_61b7b03e04244f849ba608d7f8d238ef_master.webp?alt=media&amp;token=b7cc80ee-80ee-43c5-bdb5-8dcc7ded72ff" xr:uid="{737D5AE0-8A66-41BA-BECF-07A0367409D3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{737D5AE0-8A66-41BA-BECF-07A0367409D3}"/>
     <hyperlink ref="B5:B11" r:id="rId3" display="https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/50bks_3atsb0243_1_a7b95fd2e27f4e178c8d8e82dba217c4_61b7b03e04244f849ba608d7f8d238ef_master.webp?alt=media&amp;token=b7cc80ee-80ee-43c5-bdb5-8dcc7ded72ff" xr:uid="{63EA5A4F-1298-435C-AEED-FD568ABEDF6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E3BD8-C11B-44E5-9F6D-6FA21BFA82FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D27F1-2EB5-4467-BB6C-C107DCDDE14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Áo thun unisex cổ tròn tay ngắn phom suông thời trang</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -550,29 +556,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="138.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="138.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,31 +590,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -617,15 +630,15 @@
       <c r="C2" s="3">
         <v>100000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
@@ -635,14 +648,20 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -652,15 +671,15 @@
       <c r="C3" s="3">
         <v>300000</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
@@ -670,14 +689,20 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -687,15 +712,15 @@
       <c r="C4" s="3">
         <v>400000</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -705,14 +730,20 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -722,15 +753,15 @@
       <c r="C5" s="3">
         <v>500000</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
@@ -740,14 +771,20 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -757,15 +794,15 @@
       <c r="C6" s="3">
         <v>600000</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
@@ -775,14 +812,20 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -792,15 +835,15 @@
       <c r="C7" s="3">
         <v>700000</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
@@ -810,14 +853,20 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -827,15 +876,15 @@
       <c r="C8" s="3">
         <v>800000</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
@@ -845,14 +894,20 @@
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -862,15 +917,15 @@
       <c r="C9" s="3">
         <v>900000</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
@@ -880,14 +935,20 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -897,15 +958,15 @@
       <c r="C10" s="3">
         <v>100000</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
@@ -915,14 +976,20 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -932,15 +999,15 @@
       <c r="C11" s="3">
         <v>300000</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
@@ -950,25 +1017,35 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D27F1-2EB5-4467-BB6C-C107DCDDE14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E01138-F5E3-4093-82C1-83A1A2CDC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>IdColor_IdSize_Quantity</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>1,2</t>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Chiếc áo thun Basic Small Logo sẽ mở ra một không gian thời trang đầy sáng tạo và độc đáo dành cho bạn. Với thiết kế phom rộng thoải mái kết hợp cùng hình ảnh in logo đặc trưng, Basic Small Logo không chỉ dễ dàng kết hợp với nhiều loại trang phục như quần jeans hay quần short, mà còn có thể tạo nên sự mới lạ khi phối layer cùng áo sơ mi, mang đến cho bạn vẻ ngoài đa dạng.</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -608,10 +608,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -622,412 +622,412 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>300000</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>400000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>500000</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>600000</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>700000</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>800000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>900000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>100000</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>300000</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">

--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E01138-F5E3-4093-82C1-83A1A2CDC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF88575-051B-4EAA-86FB-73F503A8637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -69,7 +69,16 @@
     <t>Áo thun unisex cổ tròn tay ngắn Basic Mega Logo</t>
   </si>
   <si>
-    <t>Áo thun unisex cổ tròn tay ngắn Heart Small Logo</t>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/50bks_3atsb0243_1_a7b95fd2e27f4e178c8d8e82dba217c4_61b7b03e04244f849ba608d7f8d238ef_master.webp?alt=media&amp;token=b7cc80ee-80ee-43c5-bdb5-8dcc7ded72ff</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Chiếc áo thun Basic Small Logo sẽ mở ra một không gian thời trang đầy sáng tạo và độc đáo dành cho bạn. Với thiết kế phom rộng thoải mái kết hợp cùng hình ảnh in logo đặc trưng, Basic Small Logo không chỉ dễ dàng kết hợp với nhiều loại trang phục như quần jeans hay quần short, mà còn có thể tạo nên sự mới lạ khi phối layer cùng áo sơ mi, mang đến cho bạn vẻ ngoài đa dạng.</t>
   </si>
   <si>
     <r>
@@ -128,52 +137,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,4-1-100,4-2-100,4-3-100,4-4-100,</t>
+      <t>,4-1-100,4-2-100,4-3-100,4-4-100</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5-1-100,5-2-100,5-3-100,5-4-100</t>
-    </r>
-  </si>
-  <si>
-    <t>Áo thun unisex cổ tròn tay ngắn New Year Dragon Overfit</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/50bks_3atsb0243_1_a7b95fd2e27f4e178c8d8e82dba217c4_61b7b03e04244f849ba608d7f8d238ef_master.webp?alt=media&amp;token=b7cc80ee-80ee-43c5-bdb5-8dcc7ded72ff</t>
-  </si>
-  <si>
-    <t>Áo thun unisex cổ tròn tay ngắn Heart New York Yankees</t>
-  </si>
-  <si>
-    <t>Áo thun unisex tay ngắn in hình dễ thương</t>
-  </si>
-  <si>
-    <t>Áo thun unisex cổ tròn tay ngắn trẻ trung</t>
-  </si>
-  <si>
-    <t>Áo thun unisex cổ tròn tay ngắn phom suông thời trang</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Chiếc áo thun Basic Small Logo sẽ mở ra một không gian thời trang đầy sáng tạo và độc đáo dành cho bạn. Với thiết kế phom rộng thoải mái kết hợp cùng hình ảnh in logo đặc trưng, Basic Small Logo không chỉ dễ dàng kết hợp với nhiều loại trang phục như quần jeans hay quần short, mà còn có thể tạo nên sự mới lạ khi phối layer cùng áo sơ mi, mang đến cho bạn vẻ ngoài đa dạng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +196,6 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="154" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -625,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
@@ -637,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -658,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -666,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>300000</v>
@@ -678,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -699,335 +664,7 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>400000</v>
-      </c>
-      <c r="D4">
-        <v>900</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>500000</v>
-      </c>
-      <c r="D5">
-        <v>900</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
-        <v>600000</v>
-      </c>
-      <c r="D6">
-        <v>900</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>700000</v>
-      </c>
-      <c r="D7">
-        <v>900</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
-        <v>800000</v>
-      </c>
-      <c r="D8">
-        <v>900</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3">
-        <v>900000</v>
-      </c>
-      <c r="D9">
-        <v>900</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D10">
-        <v>900</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>300000</v>
-      </c>
-      <c r="D11">
-        <v>900</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
@@ -1052,9 +689,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{117C104A-D9EB-40EC-8805-E491135436A6}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{737D5AE0-8A66-41BA-BECF-07A0367409D3}"/>
-    <hyperlink ref="B5:B11" r:id="rId3" display="https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/50bks_3atsb0243_1_a7b95fd2e27f4e178c8d8e82dba217c4_61b7b03e04244f849ba608d7f8d238ef_master.webp?alt=media&amp;token=b7cc80ee-80ee-43c5-bdb5-8dcc7ded72ff" xr:uid="{63EA5A4F-1298-435C-AEED-FD568ABEDF6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF88575-051B-4EAA-86FB-73F503A8637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB9E75-112B-4E03-91D1-6ABE5213B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Áo thun unisex cổ tròn tay ngắn Basic Mega Logo</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/50bks_3atsb0243_1_a7b95fd2e27f4e178c8d8e82dba217c4_61b7b03e04244f849ba608d7f8d238ef_master.webp?alt=media&amp;token=b7cc80ee-80ee-43c5-bdb5-8dcc7ded72ff</t>
   </si>
   <si>
     <t>Discount</t>
@@ -139,6 +136,12 @@
       </rPr>
       <t>,4-1-100,4-2-100,4-3-100,4-4-100</t>
     </r>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/b16ce00f-f5b7-d600-bbf8-001b6d6bda42.jpg?alt=media&amp;token=b14ba607-4d21-412f-94d9-590a1857992d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ao-thun-nam-27-10s24tss018_1__1_1.jpg?alt=media&amp;token=e0d6caed-d64f-473a-bade-065dc1d18d3f</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="154" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -590,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
@@ -599,10 +602,10 @@
         <v>900</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -623,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -631,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>300000</v>
@@ -640,10 +643,10 @@
         <v>900</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -664,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">

--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB9E75-112B-4E03-91D1-6ABE5213B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB6A19-15A3-49A6-9895-F8DCB579BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
         <v>100000</v>
       </c>
       <c r="D2">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>300000</v>
       </c>
       <c r="D3">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB6A19-15A3-49A6-9895-F8DCB579BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA17D2-AE12-4AA5-8506-4F6C40772400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Chiếc áo thun Basic Small Logo sẽ mở ra một không gian thời trang đầy sáng tạo và độc đáo dành cho bạn. Với thiết kế phom rộng thoải mái kết hợp cùng hình ảnh in logo đặc trưng, Basic Small Logo không chỉ dễ dàng kết hợp với nhiều loại trang phục như quần jeans hay quần short, mà còn có thể tạo nên sự mới lạ khi phối layer cùng áo sơ mi, mang đến cho bạn vẻ ngoài đa dạng.</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/b16ce00f-f5b7-d600-bbf8-001b6d6bda42.jpg?alt=media&amp;token=b14ba607-4d21-412f-94d9-590a1857992d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ao-thun-nam-27-10s24tss018_1__1_1.jpg?alt=media&amp;token=e0d6caed-d64f-473a-bade-065dc1d18d3f</t>
   </si>
   <si>
     <r>
@@ -107,11 +113,24 @@
       </rPr>
       <t>2-1-100,2-2-100,2-3-100,2-4-100</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-1-100,1-2-100,1-3-100,1-4-100</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>,</t>
@@ -119,36 +138,45 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3-1-100,3-2-100,3-3-100,3-4-100</t>
+      <t>2-1-100,2-2-100,2-3-100,2-4-100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1-1-100,1-2-100,1-3-100,1-4-100</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,4-1-100,4-2-100,4-3-100,4-4-100</t>
+      <t>,</t>
     </r>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/b16ce00f-f5b7-d600-bbf8-001b6d6bda42.jpg?alt=media&amp;token=b14ba607-4d21-412f-94d9-590a1857992d</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ao-thun-nam-27-10s24tss018_1__1_1.jpg?alt=media&amp;token=e0d6caed-d64f-473a-bade-065dc1d18d3f</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-1-100,2-2-100,2-3-100,2-4-100</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,11 +225,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,11 +259,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,23 +553,23 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="138.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,7 +580,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -593,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
@@ -622,11 +648,11 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
+      <c r="L2" s="3">
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -634,61 +660,711 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
         <v>300000</v>
       </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D20">
+        <v>250</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{117C104A-D9EB-40EC-8805-E491135436A6}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{737D5AE0-8A66-41BA-BECF-07A0367409D3}"/>

--- a/DataBeeFit.xlsx
+++ b/DataBeeFit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuphp\OneDrive\Documents\GitHub\BeeFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA17D2-AE12-4AA5-8506-4F6C40772400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED1143-FC8F-4F35-BC9C-7FE1B990C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Chiếc áo thun Basic Small Logo sẽ mở ra một không gian thời trang đầy sáng tạo và độc đáo dành cho bạn. Với thiết kế phom rộng thoải mái kết hợp cùng hình ảnh in logo đặc trưng, Basic Small Logo không chỉ dễ dàng kết hợp với nhiều loại trang phục như quần jeans hay quần short, mà còn có thể tạo nên sự mới lạ khi phối layer cùng áo sơ mi, mang đến cho bạn vẻ ngoài đa dạng.</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/b16ce00f-f5b7-d600-bbf8-001b6d6bda42.jpg?alt=media&amp;token=b14ba607-4d21-412f-94d9-590a1857992d</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ao-thun-nam-27-10s24tss018_1__1_1.jpg?alt=media&amp;token=e0d6caed-d64f-473a-bade-065dc1d18d3f</t>
   </si>
   <si>
     <r>
@@ -170,6 +164,120 @@
       </rPr>
       <t>2-1-100,2-2-100,2-3-100,2-4-100</t>
     </r>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay dài Basic Small Logo</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Checkerboard Big Lux</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Classic Monogram</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn hiện đại</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn in hình dễ thương</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn phom suông hiện đại</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn phom suông thời trang</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Varsity Cursive Graphic Overfit</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn New Year Dragon Overfit</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Illusion Big Lux Overfit</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Heart New York Yankees</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Sportive Varsity Track</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Vintage Sports Functional Big Logo</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ V tay ngắn Varsity Soccer Jersey</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Varsity Overfit</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Diamond Monogram Jacquard</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Cultivative Letter</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product1.jpg?alt=media&amp;token=ac3b83aa-f267-4c7a-9fbc-f3f386831174</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product2.jpg?alt=media&amp;token=f0163e30-1159-4190-8bc7-3144491f5ba8</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product3.jpg?alt=media&amp;token=f66da560-b1f7-48b1-be2e-ffd2e757d9f2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product4.jpg?alt=media&amp;token=49f6cdc6-0990-46aa-99d9-38988a8062aa</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product5.jpg?alt=media&amp;token=b726fb9f-5e20-4f3b-9961-f66da005a7b5</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product6.jpg?alt=media&amp;token=ef878b93-ad42-46cd-b211-c1d4b431c0e4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product7.jpg?alt=media&amp;token=e9b25c39-43b9-4298-9a1b-702b93ee4ec2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product8.jpg?alt=media&amp;token=866dd9af-1730-495c-95f5-01200b797abc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product9.jpg?alt=media&amp;token=fd234d6e-14d7-40d6-8c82-aad4c2f43076</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product10.jpg?alt=media&amp;token=94686dc1-0cfd-4fbf-8343-d07593c9d81e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product11.jpg?alt=media&amp;token=5f578f65-b363-45a6-92e3-492dc74ee14c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product12.jpg?alt=media&amp;token=58c6ad57-17af-40dc-b13d-39bdf9ca8189</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product14.jpg?alt=media&amp;token=93bd7e9d-b06c-49ba-b2c3-0bf4f5ca5b65</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product15.jpg?alt=media&amp;token=99ce3008-32f7-40a8-87a1-7c39f7df8835</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product16.jpg?alt=media&amp;token=e727e816-6555-484b-9626-3134c826ea88</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product17.jpg?alt=media&amp;token=321e23fb-0951-45f2-9e27-b16ba5b43916</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product18.jpg?alt=media&amp;token=596b5a84-6219-4b3a-a3f9-257b065ecdae</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product19.jpg?alt=media&amp;token=3b3bf4c4-f85f-4a0f-ac7b-e7c244102bfd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product13.jpg?alt=media&amp;token=09e50dbc-da71-4a6e-81e4-83d0551f2170</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/beefit-e0b4c.appspot.com/o/ex_product20.jpg?alt=media&amp;token=eb1a898c-010d-4d83-9e15-d95daa26487e</t>
+  </si>
+  <si>
+    <t>Áo thun unisex cổ tròn tay ngắn Monogram Series</t>
   </si>
 </sst>
 </file>
@@ -259,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -269,6 +377,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,13 +662,13 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -619,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
@@ -648,11 +757,11 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -660,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3">
         <v>200000</v>
@@ -684,21 +793,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="4">
-        <v>1</v>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>300000</v>
@@ -722,21 +834,24 @@
         <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <v>1</v>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>100000</v>
@@ -760,21 +875,24 @@
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
+      <c r="L5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="3">
         <v>200000</v>
@@ -803,16 +921,19 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="3">
         <v>300000</v>
@@ -841,16 +962,19 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
+      <c r="L7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="3">
         <v>100000</v>
@@ -879,16 +1003,19 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="3">
         <v>200000</v>
@@ -917,16 +1044,19 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
-        <v>1</v>
+      <c r="L9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>300000</v>
@@ -955,16 +1085,19 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="4">
-        <v>1</v>
+      <c r="L10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="3">
         <v>100000</v>
@@ -997,12 +1130,15 @@
         <v>9</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="3">
         <v>200000</v>
@@ -1035,12 +1171,15 @@
         <v>9</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="3">
         <v>300000</v>
@@ -1073,12 +1212,15 @@
         <v>9</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="3">
         <v>100000</v>
@@ -1111,12 +1253,15 @@
         <v>9</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="3">
         <v>200000</v>
@@ -1149,12 +1294,15 @@
         <v>9</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="3">
         <v>300000</v>
@@ -1187,12 +1335,15 @@
         <v>9</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="3">
         <v>100000</v>
@@ -1225,12 +1376,15 @@
         <v>9</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="3">
         <v>200000</v>
@@ -1254,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -1263,12 +1417,15 @@
         <v>9</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="3">
         <v>300000</v>
@@ -1301,12 +1458,15 @@
         <v>9</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="3">
         <v>100000</v>
@@ -1330,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -1339,11 +1499,49 @@
         <v>9</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D21">
+        <v>250</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
@@ -1368,8 +1566,26 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{117C104A-D9EB-40EC-8805-E491135436A6}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{737D5AE0-8A66-41BA-BECF-07A0367409D3}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{116F91A5-8306-4302-8F22-4B404A68CA22}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{628713B4-BF9D-4D98-A662-E3427A3AFC2A}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{01FF938D-E734-4361-AFD7-098BBA3EFD44}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{4C6C6B9E-E764-40D3-A8DE-3EA8D471138E}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{B863C5E4-B58D-4F56-801B-C5D47334AF1E}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{6F84B8DC-14CE-450E-9CFE-C5F07A488033}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{B7713D6C-47DE-413D-8813-4DA7CFFEEDC7}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{E5088FF4-3833-4BF7-9161-9D4A13CEA575}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{9B6796ED-0081-40A2-AAA4-718B811A747E}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{F3675BDA-2A1C-4391-9ED9-3ABB8DA20AD9}"/>
+    <hyperlink ref="B4" r:id="rId13" xr:uid="{F727B859-4C6D-450A-9505-E6CC0F0C3423}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{75405795-B430-4F18-84EA-1BE3A904DA29}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{60EBD382-71AF-4950-9128-3DC3FD2B4BC7}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{74DFED2C-6E29-4A2E-9C6F-F4088AAF850C}"/>
+    <hyperlink ref="B15" r:id="rId17" xr:uid="{D059DA6B-698B-4E89-9026-0A28C59F2E61}"/>
+    <hyperlink ref="B14" r:id="rId18" xr:uid="{018926E2-04B0-4739-94B8-8C9F2AC28163}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{BB63119E-8E70-4C88-9BBC-921F92F41023}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{5D527A8D-DA0F-46CE-B990-A0786D78A834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>